--- a/Packages/cn.etetet.wow/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Packages/cn.etetet.wow/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20452" windowHeight="8707" activeTab="2"/>
+    <workbookView windowWidth="25725" windowHeight="8017" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="3" r:id="rId1"/>
@@ -1535,7 +1535,7 @@
         <v>304</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>305</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>

--- a/Packages/cn.etetet.wow/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Packages/cn.etetet.wow/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -1535,7 +1535,7 @@
         <v>304</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>305</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
